--- a/Assets/CSV/SampleCustomEvents.xlsx
+++ b/Assets/CSV/SampleCustomEvents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Bubbla\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D486DCB-5786-469E-8081-6631160620B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21048A1-5DB0-4F97-ABBF-109578B3C3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -591,15 +592,15 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -614,31 +615,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -648,435 +649,435 @@
       <c r="B2">
         <v>99</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>99</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>99</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>99</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>99</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>99</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>99</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>99</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>99</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>58</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>99</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>99</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>53</v>
-      </c>
-      <c r="K14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>99</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>99</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>99</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>99</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>69</v>
       </c>
-      <c r="K19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>99</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>71</v>
       </c>
-      <c r="K20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>99</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>75</v>
       </c>
-      <c r="K21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>99</v>
       </c>
-      <c r="C22">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
         <v>76</v>
-      </c>
-      <c r="K22" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/CSV/SampleCustomEvents.xlsx
+++ b/Assets/CSV/SampleCustomEvents.xlsx
@@ -1,66 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Bubbla\Assets\CSV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21048A1-5DB0-4F97-ABBF-109578B3C3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>EvtIndex</t>
+  </si>
+  <si>
+    <t>PARAM0</t>
+  </si>
+  <si>
+    <t>PARAM1</t>
+  </si>
+  <si>
+    <t>PARAM2</t>
+  </si>
+  <si>
+    <t>PARAM3</t>
+  </si>
+  <si>
+    <t>PARAM4</t>
+  </si>
+  <si>
+    <t>PARAM5</t>
+  </si>
+  <si>
+    <t>PARAM6</t>
+  </si>
+  <si>
     <t>GAME</t>
   </si>
   <si>
-    <t>MODE</t>
-  </si>
-  <si>
-    <t>EvtIndex</t>
-  </si>
-  <si>
-    <t>PARAM0</t>
-  </si>
-  <si>
-    <t>PARAM1</t>
-  </si>
-  <si>
-    <t>PARAM2</t>
-  </si>
-  <si>
-    <t>PARAM3</t>
-  </si>
-  <si>
-    <t>PARAM4</t>
-  </si>
-  <si>
-    <t>PARAM5</t>
-  </si>
-  <si>
-    <t>PARAM6</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
     <t>genEnemy</t>
   </si>
   <si>
@@ -97,6 +85,9 @@
     <t>*colorMode</t>
   </si>
   <si>
+    <t>nActiveOnStart</t>
+  </si>
+  <si>
     <t>wait</t>
   </si>
   <si>
@@ -121,181 +112,521 @@
     <t>setGOActive</t>
   </si>
   <si>
+    <t>nActive</t>
+  </si>
+  <si>
+    <t>*effect</t>
+  </si>
+  <si>
+    <t>setScriptBoolean (ckTouch, canMovePointer, scrollin, buttonActive)</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>nSetTo</t>
+  </si>
+  <si>
+    <t>*infoParam</t>
+  </si>
+  <si>
     <t>waitUntil</t>
   </si>
   <si>
+    <t>nVarType</t>
+  </si>
+  <si>
+    <t>nCompareType</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>*lineGoTo</t>
+  </si>
+  <si>
+    <t>*nYieldControl</t>
+  </si>
+  <si>
     <t>moveTo</t>
   </si>
   <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
     <t>moveToInSecs</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>clearEnemiesOrPBs</t>
   </si>
   <si>
+    <t>nDestroyType</t>
+  </si>
+  <si>
+    <t>scaleToInSecs</t>
+  </si>
+  <si>
+    <t>targetScale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>waitUntilDestroyed (wait until a GO is no longer existent)</t>
+  </si>
+  <si>
+    <t>*goToLine</t>
+  </si>
+  <si>
     <t>fadeInOutToColor</t>
   </si>
   <si>
+    <t>vfxType</t>
+  </si>
+  <si>
+    <t>*altColor</t>
+  </si>
+  <si>
     <t>screenShake</t>
   </si>
   <si>
+    <t>nDuration</t>
+  </si>
+  <si>
+    <t>*magnitude</t>
+  </si>
+  <si>
+    <t>*damp</t>
+  </si>
+  <si>
     <t>screenFlash</t>
   </si>
   <si>
+    <t>nNumFlash</t>
+  </si>
+  <si>
+    <t>*intervalTime</t>
+  </si>
+  <si>
+    <t>variable (create or mod)</t>
+  </si>
+  <si>
+    <t>nVarType(s)</t>
+  </si>
+  <si>
+    <t>startValue(s)</t>
+  </si>
+  <si>
     <t>conditionalSwitch</t>
   </si>
   <si>
+    <t>pointToLines</t>
+  </si>
+  <si>
     <t>swapBGScrollAndWaitForFinish</t>
   </si>
   <si>
+    <t>boolName</t>
+  </si>
+  <si>
+    <t>spotBGIndex</t>
+  </si>
+  <si>
     <t>loadAndPlayBGM</t>
   </si>
   <si>
+    <t>nLoadClip</t>
+  </si>
+  <si>
+    <t>nameSoundFile</t>
+  </si>
+  <si>
+    <t>*shouldLoop</t>
+  </si>
+  <si>
+    <t>*playInstantly</t>
+  </si>
+  <si>
     <t>levelScriptEvent</t>
   </si>
   <si>
-    <t>nActive</t>
-  </si>
-  <si>
-    <t>nActiveOnStart</t>
-  </si>
-  <si>
-    <t>*effect</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>setScriptBoolean (ckTouch, canMovePointer, scrollin, buttonActive)</t>
-  </si>
-  <si>
-    <t>nSetTo</t>
-  </si>
-  <si>
-    <t>*infoParam</t>
-  </si>
-  <si>
-    <t>nVarType</t>
-  </si>
-  <si>
-    <t>nCompareType</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>*lineGoTo</t>
-  </si>
-  <si>
-    <t>*nYieldControl</t>
-  </si>
-  <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
-  </si>
-  <si>
-    <t>spd</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>nDestroyType</t>
-  </si>
-  <si>
-    <t>vfxType</t>
-  </si>
-  <si>
-    <t>*altColor</t>
-  </si>
-  <si>
-    <t>nDuration</t>
-  </si>
-  <si>
-    <t>*magnitude</t>
-  </si>
-  <si>
-    <t>*damp</t>
-  </si>
-  <si>
-    <t>nNumFlash</t>
-  </si>
-  <si>
-    <t>*intervalTime</t>
-  </si>
-  <si>
-    <t>nVarType(s)</t>
-  </si>
-  <si>
-    <t>startValue(s)</t>
-  </si>
-  <si>
-    <t>variable (create or mod)</t>
-  </si>
-  <si>
-    <t>pointToLines</t>
-  </si>
-  <si>
-    <t>boolName</t>
-  </si>
-  <si>
-    <t>spotBGIndex</t>
-  </si>
-  <si>
-    <t>nLoadClip</t>
-  </si>
-  <si>
-    <t>nameSoundFile</t>
-  </si>
-  <si>
-    <t>*shouldLoop</t>
-  </si>
-  <si>
-    <t>*playInstantly</t>
-  </si>
-  <si>
     <t>eventIndex</t>
-  </si>
-  <si>
-    <t>waitUntilDestroyed (wait until a GO is no longer existent)</t>
-  </si>
-  <si>
-    <t>scaleToInSecs</t>
-  </si>
-  <si>
-    <t>targetScale</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>*goToLine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,24 +634,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -369,7 +986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -404,7 +1021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -578,44 +1195,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28333333333333" customWidth="1"/>
+    <col min="3" max="3" width="41.1416666666667" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="63.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.425" customWidth="1"/>
+    <col min="6" max="6" width="15.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.2833333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.7083333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.1416666666667" customWidth="1"/>
+    <col min="11" max="11" width="63.425" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="21" customHeight="1" spans="1:11">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -642,9 +1254,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -671,7 +1283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>99</v>
       </c>
@@ -694,7 +1306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>99</v>
       </c>
@@ -717,238 +1329,238 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16">
         <v>21</v>
@@ -963,124 +1575,125 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D20">
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D21">
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22">
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>